--- a/0咪咕音乐/咪咕音乐超编v1120/媒资门户ATP用例.xlsx
+++ b/0咪咕音乐/咪咕音乐超编v1120/媒资门户ATP用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="258">
   <si>
     <t>*功能模块</t>
   </si>
@@ -204,13 +204,10 @@
 2、返回结果中不显示目标歌曲对应歌专辑</t>
   </si>
   <si>
+    <t>mv名前缀搜索-中文</t>
+  </si>
+  <si>
     <t>mzmh-010</t>
-  </si>
-  <si>
-    <t>mv名前缀搜索-中文</t>
-  </si>
-  <si>
-    <t>mzmh-011</t>
   </si>
   <si>
     <t>前世情</t>
@@ -223,52 +220,52 @@
     <t>mv名中后缀搜索-中文</t>
   </si>
   <si>
+    <t>mzmh-011</t>
+  </si>
+  <si>
+    <t>拉格广场</t>
+  </si>
+  <si>
+    <t>专辑名前缀搜索-中文</t>
+  </si>
+  <si>
     <t>mzmh-012</t>
   </si>
   <si>
-    <t>拉格广场</t>
-  </si>
-  <si>
-    <t>专辑名前缀搜索-中文</t>
+    <t>十一月的</t>
+  </si>
+  <si>
+    <t>专辑名中后缀搜索-中文</t>
   </si>
   <si>
     <t>mzmh-013</t>
   </si>
   <si>
-    <t>十一月的</t>
-  </si>
-  <si>
-    <t>专辑名中后缀搜索-中文</t>
+    <t>深缘浅</t>
+  </si>
+  <si>
+    <t>歌曲名前缀搜索-中文</t>
   </si>
   <si>
     <t>mzmh-014</t>
   </si>
   <si>
-    <t>深缘浅</t>
-  </si>
-  <si>
-    <t>歌曲名前缀搜索-中文</t>
+    <t>月半小夜</t>
+  </si>
+  <si>
+    <t>歌曲名中后缀搜索-中文</t>
   </si>
   <si>
     <t>mzmh-015</t>
   </si>
   <si>
-    <t>月半小夜</t>
-  </si>
-  <si>
-    <t>歌曲名中后缀搜索-中文</t>
+    <t>花瓷</t>
+  </si>
+  <si>
+    <t>无前中后缀搜索结果，走分词搜索</t>
   </si>
   <si>
     <t>mzmh-016</t>
-  </si>
-  <si>
-    <t>花瓷</t>
-  </si>
-  <si>
-    <t>无前中后缀搜索结果，走分词搜索</t>
-  </si>
-  <si>
-    <t>mzmh-017</t>
   </si>
   <si>
     <t>北京欢迎你</t>
@@ -281,7 +278,7 @@
     <t>中文人物名搜索，优先显示歌手下sam</t>
   </si>
   <si>
-    <t>mzmh-018</t>
+    <t>mzmh-017</t>
   </si>
   <si>
     <t>周杰伦</t>
@@ -294,16 +291,16 @@
     <t>英文人物名搜索，优先显示歌手下sam</t>
   </si>
   <si>
+    <t>mzmh-018</t>
+  </si>
+  <si>
+    <t>Taylor Swift</t>
+  </si>
+  <si>
+    <t>音乐标签搜索</t>
+  </si>
+  <si>
     <t>mzmh-019</t>
-  </si>
-  <si>
-    <t>Taylor Swift</t>
-  </si>
-  <si>
-    <t>音乐标签搜索</t>
-  </si>
-  <si>
-    <t>mzmh-020</t>
   </si>
   <si>
     <t>爱国</t>
@@ -316,7 +313,7 @@
     <t>标签+子内容歌曲搜索</t>
   </si>
   <si>
-    <t>mzmh-021</t>
+    <t>mzmh-020</t>
   </si>
   <si>
     <t>寂寞歌曲</t>
@@ -329,7 +326,7 @@
     <t>标签+歌手搜索</t>
   </si>
   <si>
-    <t>mzmh-022</t>
+    <t>mzmh-021</t>
   </si>
   <si>
     <t>粤语 陈奕迅</t>
@@ -342,31 +339,31 @@
     <t>mv搜索</t>
   </si>
   <si>
+    <t>mzmh-022</t>
+  </si>
+  <si>
+    <t>搜索mv告白气球</t>
+  </si>
+  <si>
+    <t>专辑搜索</t>
+  </si>
+  <si>
     <t>mzmh-023</t>
   </si>
   <si>
-    <t>搜索mv告白气球</t>
-  </si>
-  <si>
-    <t>专辑搜索</t>
+    <t>搜索专辑叶惠美</t>
+  </si>
+  <si>
+    <t>标签+歌手名搜索</t>
   </si>
   <si>
     <t>mzmh-024</t>
   </si>
   <si>
-    <t>搜索专辑叶惠美</t>
-  </si>
-  <si>
-    <t>标签+歌手名搜索</t>
+    <t>搜索词音乐人物</t>
   </si>
   <si>
     <t>mzmh-025</t>
-  </si>
-  <si>
-    <t>搜索词音乐人物</t>
-  </si>
-  <si>
-    <t>mzmh-026</t>
   </si>
   <si>
     <t>1、超编搜索接口搜索关键字（音乐人物），筛选置为专辑，发起请求
@@ -381,7 +378,7 @@
     <t>单曲筛选</t>
   </si>
   <si>
-    <t>mzmh-027</t>
+    <t>mzmh-026</t>
   </si>
   <si>
     <t>1、超编搜索接口搜索关键字，筛选置为单曲，发起请求
@@ -398,115 +395,115 @@
     <t>联想-全匹配搜索-中文</t>
   </si>
   <si>
+    <t>mzmh-027</t>
+  </si>
+  <si>
+    <t>1.系统正常，有全量数据</t>
+  </si>
+  <si>
+    <t>毒苹果，千里之外</t>
+  </si>
+  <si>
+    <t>1.联想接口搜索，发送请求；2.查看返回结果</t>
+  </si>
+  <si>
+    <t>1.请求成功；2.返回结果中有目标匹配结果</t>
+  </si>
+  <si>
+    <t>联想-前缀匹配搜索-中文</t>
+  </si>
+  <si>
+    <t>mzmh-028</t>
+  </si>
+  <si>
+    <t>七里</t>
+  </si>
+  <si>
+    <t>联想-前缀匹配搜索-数字</t>
+  </si>
+  <si>
+    <t>mzmh-029</t>
+  </si>
+  <si>
+    <t>联想-简拼匹配搜索-中文</t>
+  </si>
+  <si>
+    <t>mzmh-030</t>
+  </si>
+  <si>
+    <t>qlx</t>
+  </si>
+  <si>
+    <t>联想-全拼匹配搜索-中文</t>
+  </si>
+  <si>
+    <t>mzmh-031</t>
+  </si>
+  <si>
+    <t>qilixiang</t>
+  </si>
+  <si>
+    <t>联想-全拼匹配搜索-英文</t>
+  </si>
+  <si>
     <t>mzmh-032</t>
   </si>
   <si>
-    <t>1.系统正常，有全量数据</t>
-  </si>
-  <si>
-    <t>毒苹果，千里之外</t>
-  </si>
-  <si>
-    <t>1.联想接口搜索，发送请求；2.查看返回结果</t>
-  </si>
-  <si>
-    <t>1.请求成功；2.返回结果中有目标匹配结果</t>
-  </si>
-  <si>
-    <t>联想-前缀匹配搜索-中文</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>搜索词&lt;2个，hot&gt;20W-中文</t>
   </si>
   <si>
     <t>mzmh-033</t>
   </si>
   <si>
-    <t>七里</t>
-  </si>
-  <si>
-    <t>联想-前缀匹配搜索-数字</t>
+    <t>酒</t>
+  </si>
+  <si>
+    <t>搜索词&gt;2个，hot&gt;20W-中文</t>
   </si>
   <si>
     <t>mzmh-034</t>
   </si>
   <si>
-    <t>联想-简拼匹配搜索-中文</t>
+    <t>千里之外</t>
+  </si>
+  <si>
+    <t>联想词个数满足10个</t>
   </si>
   <si>
     <t>mzmh-035</t>
   </si>
   <si>
-    <t>qlx</t>
-  </si>
-  <si>
-    <t>联想-全拼匹配搜索-中文</t>
+    <t>1.请求成功；2.联想词个数为10个，分别是5个音乐类型，5个视频类型，音乐不足5个时，用视频类型补足</t>
+  </si>
+  <si>
+    <t>联想词去重展示</t>
   </si>
   <si>
     <t>mzmh-036</t>
   </si>
   <si>
-    <t>qilixiang</t>
-  </si>
-  <si>
-    <t>联想-全拼匹配搜索-英文</t>
+    <t>明月</t>
+  </si>
+  <si>
+    <t>1.联想词去重展示，不会展示2个一样的提示词</t>
+  </si>
+  <si>
+    <t>联想词返回总数展示</t>
   </si>
   <si>
     <t>mzmh-037</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>搜索词&lt;2个，hot&gt;20W-中文</t>
+    <t>1.返回联想词，并且有联想词对应的相关结果xx条提示语</t>
+  </si>
+  <si>
+    <t>中文歌曲id搜索</t>
   </si>
   <si>
     <t>mzmh-038</t>
-  </si>
-  <si>
-    <t>酒</t>
-  </si>
-  <si>
-    <t>搜索词&gt;2个，hot&gt;20W-中文</t>
-  </si>
-  <si>
-    <t>mzmh-039</t>
-  </si>
-  <si>
-    <t>千里之外</t>
-  </si>
-  <si>
-    <t>联想词个数满足10个</t>
-  </si>
-  <si>
-    <t>mzmh-040</t>
-  </si>
-  <si>
-    <t>1.请求成功；2.联想词个数为10个，分别是5个音乐类型，5个视频类型，音乐不足5个时，用视频类型补足</t>
-  </si>
-  <si>
-    <t>联想词去重展示</t>
-  </si>
-  <si>
-    <t>mzmh-041</t>
-  </si>
-  <si>
-    <t>明月</t>
-  </si>
-  <si>
-    <t>1.联想词去重展示，不会展示2个一样的提示词</t>
-  </si>
-  <si>
-    <t>联想词返回总数展示</t>
-  </si>
-  <si>
-    <t>mzmh-042</t>
-  </si>
-  <si>
-    <t>1.返回联想词，并且有联想词对应的相关结果xx条提示语</t>
-  </si>
-  <si>
-    <t>中文歌曲id搜索</t>
-  </si>
-  <si>
-    <t>mzmh-043</t>
   </si>
   <si>
     <t>歌曲版权id+2+产品id
@@ -523,7 +520,7 @@
     <t>筛选长视频</t>
   </si>
   <si>
-    <t>mzmh-044</t>
+    <t>mzmh-039</t>
   </si>
   <si>
     <t>1、系统运行正常</t>
@@ -568,7 +565,7 @@
     <t>筛选长视频+电视剧</t>
   </si>
   <si>
-    <t>mzmh-045</t>
+    <t>mzmh-040</t>
   </si>
   <si>
     <r>
@@ -634,7 +631,7 @@
     <t>筛选长视频+电视剧+古装</t>
   </si>
   <si>
-    <t>mzmh-046</t>
+    <t>mzmh-041</t>
   </si>
   <si>
     <r>
@@ -719,7 +716,7 @@
     <t>筛选短视频</t>
   </si>
   <si>
-    <t>mzmh-047</t>
+    <t>mzmh-042</t>
   </si>
   <si>
     <t>1、点击短视频筛选项</t>
@@ -758,7 +755,7 @@
     <t>筛选短视频+电视剧</t>
   </si>
   <si>
-    <t>mzmh-048</t>
+    <t>mzmh-043</t>
   </si>
   <si>
     <r>
@@ -824,7 +821,7 @@
     <t>筛选短视频+电视剧+古装</t>
   </si>
   <si>
-    <t>mzmh-049</t>
+    <t>mzmh-044</t>
   </si>
   <si>
     <r>
@@ -909,7 +906,7 @@
     <t>2个维度分别选中多个标签</t>
   </si>
   <si>
-    <t>mzmh-050</t>
+    <t>mzmh-045</t>
   </si>
   <si>
     <t>1、系统运行正常  2、已筛选出长视频+二级分类+三级分类的结果</t>
@@ -921,7 +918,7 @@
     <t>1、在已筛选出的结果中再次筛选出 [media_type,op_new_tags,op_tag,wckeyword]= 第一个维度中某一个五级标签 和 第二个维度中某一个五级标签 的视频</t>
   </si>
   <si>
-    <t>mzmh-051</t>
+    <t>mzmh-046</t>
   </si>
   <si>
     <r>
@@ -947,7 +944,7 @@
     <t>三级分类作为关键字，在长视频+二级分类下搜索结果</t>
   </si>
   <si>
-    <t>mzmh-052</t>
+    <t>mzmh-047</t>
   </si>
   <si>
     <r>
@@ -979,7 +976,7 @@
     <t>“二级分类|三级分类”作为关键字，在长视频下搜索结果</t>
   </si>
   <si>
-    <t>mzmh-053</t>
+    <t>mzmh-048</t>
   </si>
   <si>
     <r>
@@ -1056,7 +1053,7 @@
     <t>所有“五级分类”作为搜索关键字，在长视频+二级分类+三级分类下搜索结果</t>
   </si>
   <si>
-    <t>mzmh-054</t>
+    <t>mzmh-049</t>
   </si>
   <si>
     <r>
@@ -1088,7 +1085,7 @@
     <t>三级分类作为关键字，在短视频+二级分类下搜索结果</t>
   </si>
   <si>
-    <t>mzmh-055</t>
+    <t>mzmh-050</t>
   </si>
   <si>
     <r>
@@ -1120,7 +1117,7 @@
     <t>“二级分类|三级分类”作为关键字，在短视频下搜索结果</t>
   </si>
   <si>
-    <t>mzmh-056</t>
+    <t>mzmh-051</t>
   </si>
   <si>
     <r>
@@ -1180,7 +1177,7 @@
     <t>所有“五级分类”作为搜索关键字，在短视频+二级分类+三级分类下搜索结果</t>
   </si>
   <si>
-    <t>mzmh-057</t>
+    <t>mzmh-052</t>
   </si>
   <si>
     <r>
@@ -1215,7 +1212,7 @@
     <t>完全匹配搜索</t>
   </si>
   <si>
-    <t>mzmh-058</t>
+    <t>mzmh-053</t>
   </si>
   <si>
     <t>天龙八部</t>
@@ -1231,7 +1228,7 @@
     <t>人物</t>
   </si>
   <si>
-    <t>mzmh-059</t>
+    <t>mzmh-054</t>
   </si>
   <si>
     <t>周星驰</t>
@@ -1270,7 +1267,7 @@
     <t>超编去掉专题查询</t>
   </si>
   <si>
-    <t>mzmh-060</t>
+    <t>mzmh-055</t>
   </si>
   <si>
     <t>p1</t>
@@ -1313,6 +1310,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1、视频specialTopicAssetList字段不为空</t>
     </r>
     <r>
@@ -1333,7 +1336,7 @@
     <t>超编去掉节目查询</t>
   </si>
   <si>
-    <t>mzmh-061</t>
+    <t>mzmh-056</t>
   </si>
   <si>
     <r>
@@ -1361,6 +1364,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1、视频返回epgItem</t>
     </r>
     <r>
@@ -1381,7 +1390,7 @@
     <t>超编去掉直播挂件查询</t>
   </si>
   <si>
-    <t>mzmh-062</t>
+    <t>mzmh-057</t>
   </si>
   <si>
     <r>
@@ -1418,6 +1427,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1、视频返回widget</t>
     </r>
     <r>
@@ -1438,10 +1453,16 @@
     <t>超编去掉关联词</t>
   </si>
   <si>
-    <t>mzmh-063</t>
-  </si>
-  <si>
-    <r>
+    <t>mzmh-058</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1、视频返回msg=关联</t>
     </r>
     <r>
@@ -1462,7 +1483,7 @@
     <t>超编联想提示去重处理</t>
   </si>
   <si>
-    <t>mzmh-064</t>
+    <t>mzmh-059</t>
   </si>
   <si>
     <r>
@@ -1493,69 +1514,6 @@
       </rPr>
       <t>2、超编和视频联想提示8条以上相同</t>
     </r>
-  </si>
-  <si>
-    <t>content_type=0的关联词可以正常提示</t>
-  </si>
-  <si>
-    <t>mzmh-065</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1、系统正常运行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2、超编已登录</t>
-    </r>
-  </si>
-  <si>
-    <t>0，1，2，3，5，6，7，8，9，10，12，13，14，15，17，18，19，20，21，22，23，24，25，26</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1、数据库查询content_type值，查看返回结果</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2、超编搜索返回结果suggest_word部分，查看返回结果</t>
-    </r>
-  </si>
-  <si>
-    <t>1、有相应结果返回</t>
   </si>
 </sst>
 </file>
@@ -1563,12 +1521,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1616,13 +1574,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -1637,14 +1588,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1658,71 +1670,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1734,6 +1686,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1742,16 +1701,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1765,16 +1724,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1795,7 +1746,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1807,13 +1800,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,85 +1848,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1921,31 +1884,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1957,25 +1902,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2080,17 +2031,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2106,11 +2046,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2132,9 +2078,38 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2153,30 +2128,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2185,10 +2136,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2197,16 +2148,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2215,119 +2166,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2391,12 +2342,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2415,7 +2360,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2424,9 +2369,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2439,7 +2381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2761,10 +2703,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BE62"/>
+  <dimension ref="A1:BE60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2815,25 +2757,25 @@
       <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="R1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2854,7 +2796,7 @@
       <c r="H2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="24" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="15" t="s">
@@ -2867,18 +2809,18 @@
         <v>26</v>
       </c>
       <c r="M2" s="15"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="45" spans="1:25">
       <c r="A3" s="13"/>
@@ -2897,7 +2839,7 @@
       <c r="H3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="24" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="15" t="s">
@@ -2910,18 +2852,18 @@
         <v>26</v>
       </c>
       <c r="M3" s="15"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="45" spans="1:25">
       <c r="A4" s="13"/>
@@ -2940,7 +2882,7 @@
       <c r="H4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="24" t="s">
         <v>32</v>
       </c>
       <c r="J4" s="15" t="s">
@@ -2953,18 +2895,18 @@
         <v>26</v>
       </c>
       <c r="M4" s="15"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="45" spans="1:25">
       <c r="A5" s="13"/>
@@ -2983,7 +2925,7 @@
       <c r="H5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="24" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="15" t="s">
@@ -2996,18 +2938,18 @@
         <v>26</v>
       </c>
       <c r="M5" s="15"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="75" spans="1:25">
       <c r="A6" s="13"/>
@@ -3026,7 +2968,7 @@
       <c r="H6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="24" t="s">
         <v>38</v>
       </c>
       <c r="J6" s="15" t="s">
@@ -3039,18 +2981,18 @@
         <v>26</v>
       </c>
       <c r="M6" s="15"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="45" spans="1:25">
       <c r="A7" s="13"/>
@@ -3069,7 +3011,7 @@
       <c r="H7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="24" t="s">
         <v>44</v>
       </c>
       <c r="J7" s="15" t="s">
@@ -3082,18 +3024,18 @@
         <v>26</v>
       </c>
       <c r="M7" s="15"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="45" spans="1:25">
       <c r="A8" s="13"/>
@@ -3112,7 +3054,7 @@
       <c r="H8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="24" t="s">
         <v>47</v>
       </c>
       <c r="J8" s="15" t="s">
@@ -3125,18 +3067,18 @@
         <v>26</v>
       </c>
       <c r="M8" s="15"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="45" spans="1:25">
       <c r="A9" s="13"/>
@@ -3155,7 +3097,7 @@
       <c r="H9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="24" t="s">
         <v>50</v>
       </c>
       <c r="J9" s="15" t="s">
@@ -3168,18 +3110,18 @@
         <v>26</v>
       </c>
       <c r="M9" s="15"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="45" spans="1:25">
       <c r="A10" s="13"/>
@@ -3198,7 +3140,7 @@
       <c r="H10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="24" t="s">
         <v>55</v>
       </c>
       <c r="J10" s="15" t="s">
@@ -3211,29 +3153,29 @@
         <v>26</v>
       </c>
       <c r="M10" s="15"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="75" spans="1:25">
+      <c r="N10" s="25"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="60" spans="1:25">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="13"/>
       <c r="E11" s="15" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>21</v>
@@ -3241,31 +3183,31 @@
       <c r="H11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="26" t="s">
-        <v>38</v>
+      <c r="I11" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M11" s="15"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="60" spans="1:25">
       <c r="A12" s="13"/>
@@ -3273,10 +3215,10 @@
       <c r="C12" s="14"/>
       <c r="D12" s="13"/>
       <c r="E12" s="15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>21</v>
@@ -3284,11 +3226,11 @@
       <c r="H12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>25</v>
@@ -3297,18 +3239,18 @@
         <v>26</v>
       </c>
       <c r="M12" s="15"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="60" spans="1:25">
       <c r="A13" s="13"/>
@@ -3316,10 +3258,10 @@
       <c r="C13" s="14"/>
       <c r="D13" s="13"/>
       <c r="E13" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>21</v>
@@ -3327,11 +3269,11 @@
       <c r="H13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="26" t="s">
-        <v>65</v>
+      <c r="I13" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>25</v>
@@ -3340,18 +3282,18 @@
         <v>26</v>
       </c>
       <c r="M13" s="15"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="60" spans="1:25">
       <c r="A14" s="13"/>
@@ -3359,10 +3301,10 @@
       <c r="C14" s="14"/>
       <c r="D14" s="13"/>
       <c r="E14" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>21</v>
@@ -3370,11 +3312,11 @@
       <c r="H14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="26" t="s">
-        <v>68</v>
+      <c r="I14" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>25</v>
@@ -3383,18 +3325,18 @@
         <v>26</v>
       </c>
       <c r="M14" s="15"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="60" spans="1:25">
       <c r="A15" s="13"/>
@@ -3402,10 +3344,10 @@
       <c r="C15" s="14"/>
       <c r="D15" s="13"/>
       <c r="E15" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>21</v>
@@ -3413,11 +3355,11 @@
       <c r="H15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="26" t="s">
-        <v>71</v>
+      <c r="I15" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>25</v>
@@ -3426,18 +3368,18 @@
         <v>26</v>
       </c>
       <c r="M15" s="15"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="60" spans="1:25">
       <c r="A16" s="13"/>
@@ -3445,10 +3387,10 @@
       <c r="C16" s="14"/>
       <c r="D16" s="13"/>
       <c r="E16" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>21</v>
@@ -3456,11 +3398,11 @@
       <c r="H16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="26" t="s">
-        <v>74</v>
+      <c r="I16" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>25</v>
@@ -3469,29 +3411,29 @@
         <v>26</v>
       </c>
       <c r="M16" s="15"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="60" spans="1:25">
+      <c r="N16" s="25"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="45" spans="1:25">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="13"/>
       <c r="E17" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>21</v>
@@ -3499,31 +3441,31 @@
       <c r="H17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="26" t="s">
-        <v>77</v>
+      <c r="I17" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="L17" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M17" s="15"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="45" spans="1:25">
       <c r="A18" s="13"/>
@@ -3531,10 +3473,10 @@
       <c r="C18" s="14"/>
       <c r="D18" s="13"/>
       <c r="E18" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>21</v>
@@ -3542,31 +3484,31 @@
       <c r="H18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="26" t="s">
-        <v>80</v>
+      <c r="I18" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L18" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M18" s="15"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="45" spans="1:25">
       <c r="A19" s="13"/>
@@ -3574,10 +3516,10 @@
       <c r="C19" s="14"/>
       <c r="D19" s="13"/>
       <c r="E19" s="15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>21</v>
@@ -3585,31 +3527,31 @@
       <c r="H19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="26" t="s">
-        <v>84</v>
+      <c r="I19" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="J19" s="15" t="s">
         <v>24</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L19" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M19" s="15"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="45" spans="1:25">
       <c r="A20" s="13"/>
@@ -3617,10 +3559,10 @@
       <c r="C20" s="14"/>
       <c r="D20" s="13"/>
       <c r="E20" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>21</v>
@@ -3628,42 +3570,42 @@
       <c r="H20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="26" t="s">
-        <v>88</v>
+      <c r="I20" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="L20" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M20" s="15"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="45" spans="1:25">
+      <c r="N20" s="25"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="60" spans="1:25">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="13"/>
       <c r="E21" s="15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>21</v>
@@ -3671,11 +3613,11 @@
       <c r="H21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="26" t="s">
-        <v>91</v>
+      <c r="I21" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>25</v>
@@ -3684,18 +3626,18 @@
         <v>26</v>
       </c>
       <c r="M21" s="15"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="60" spans="1:25">
       <c r="A22" s="13"/>
@@ -3703,10 +3645,10 @@
       <c r="C22" s="14"/>
       <c r="D22" s="13"/>
       <c r="E22" s="15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>21</v>
@@ -3714,11 +3656,11 @@
       <c r="H22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="26" t="s">
-        <v>95</v>
+      <c r="I22" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>25</v>
@@ -3727,29 +3669,29 @@
         <v>26</v>
       </c>
       <c r="M22" s="15"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="60" spans="1:25">
+      <c r="N22" s="25"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="45" spans="1:25">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="13"/>
       <c r="E23" s="15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>21</v>
@@ -3757,11 +3699,11 @@
       <c r="H23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="26" t="s">
-        <v>99</v>
+      <c r="I23" s="24" t="s">
+        <v>102</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>25</v>
@@ -3770,18 +3712,18 @@
         <v>26</v>
       </c>
       <c r="M23" s="15"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="45" spans="1:25">
       <c r="A24" s="13"/>
@@ -3789,10 +3731,10 @@
       <c r="C24" s="14"/>
       <c r="D24" s="13"/>
       <c r="E24" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>21</v>
@@ -3800,8 +3742,8 @@
       <c r="H24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="26" t="s">
-        <v>103</v>
+      <c r="I24" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>24</v>
@@ -3813,18 +3755,18 @@
         <v>26</v>
       </c>
       <c r="M24" s="15"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="45" spans="1:25">
       <c r="A25" s="13"/>
@@ -3832,10 +3774,10 @@
       <c r="C25" s="14"/>
       <c r="D25" s="13"/>
       <c r="E25" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G25" s="15" t="s">
         <v>21</v>
@@ -3843,9 +3785,7 @@
       <c r="H25" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="26" t="s">
-        <v>106</v>
-      </c>
+      <c r="I25" s="24"/>
       <c r="J25" s="15" t="s">
         <v>24</v>
       </c>
@@ -3856,29 +3796,29 @@
         <v>26</v>
       </c>
       <c r="M25" s="15"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="45" spans="1:25">
+      <c r="N25" s="25"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="75" spans="1:25">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="13"/>
       <c r="E26" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>21</v>
@@ -3886,40 +3826,42 @@
       <c r="H26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="26"/>
+      <c r="I26" s="24" t="s">
+        <v>83</v>
+      </c>
       <c r="J26" s="15" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="L26" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M26" s="15"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="75" spans="1:25">
+      <c r="N26" s="25"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="60" spans="1:25">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="13"/>
       <c r="E27" s="15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G27" s="15" t="s">
         <v>21</v>
@@ -3927,74 +3869,79 @@
       <c r="H27" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="26" t="s">
-        <v>84</v>
-      </c>
+      <c r="I27" s="24"/>
       <c r="J27" s="15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L27" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="M27" s="15"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="60" spans="1:25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
+      <c r="M27" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="N27" s="25"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="45" spans="1:28">
+      <c r="A28" s="14"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="13"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="15" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G28" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="26"/>
+        <v>119</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>120</v>
+      </c>
       <c r="J28" s="15" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L28" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="N28" s="27"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
+        <v>116</v>
+      </c>
+      <c r="N28" s="25"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A29" s="14"/>
@@ -4002,47 +3949,47 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="15" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I29" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="K29" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="L29" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="N29" s="27"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
+        <v>116</v>
+      </c>
+      <c r="N29" s="25"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="33"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A30" s="14"/>
@@ -4050,47 +3997,47 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>126</v>
+        <v>119</v>
+      </c>
+      <c r="I30" s="24">
+        <v>2002</v>
       </c>
       <c r="J30" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="L30" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="N30" s="27"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="36"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
+        <v>116</v>
+      </c>
+      <c r="N30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="33"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A31" s="14"/>
@@ -4098,47 +4045,47 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I31" s="26">
-        <v>2002</v>
+        <v>119</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="J31" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K31" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="L31" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="N31" s="27"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="36"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
+        <v>116</v>
+      </c>
+      <c r="N31" s="25"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A32" s="14"/>
@@ -4146,47 +4093,47 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G32" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>131</v>
+        <v>119</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="J32" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K32" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="L32" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M32" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="N32" s="27"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
+        <v>116</v>
+      </c>
+      <c r="N32" s="25"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A33" s="14"/>
@@ -4194,47 +4141,47 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I33" s="26" t="s">
-        <v>134</v>
+        <v>119</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="J33" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K33" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="L33" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="N33" s="27"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="36"/>
-      <c r="AA33" s="36"/>
-      <c r="AB33" s="36"/>
+        <v>116</v>
+      </c>
+      <c r="N33" s="25"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="33"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A34" s="14"/>
@@ -4242,47 +4189,47 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I34" s="26" t="s">
-        <v>137</v>
+        <v>119</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>139</v>
       </c>
       <c r="J34" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K34" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="L34" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="N34" s="27"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="36"/>
-      <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
+        <v>116</v>
+      </c>
+      <c r="N34" s="25"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="33"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A35" s="14"/>
@@ -4290,47 +4237,47 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>140</v>
+        <v>119</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>142</v>
       </c>
       <c r="J35" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="K35" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>123</v>
       </c>
       <c r="L35" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="N35" s="27"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="36"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
+        <v>116</v>
+      </c>
+      <c r="N35" s="25"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
     </row>
     <row r="36" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A36" s="14"/>
@@ -4338,47 +4285,47 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G36" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I36" s="26" t="s">
-        <v>143</v>
+        <v>119</v>
+      </c>
+      <c r="I36" s="24">
+        <v>1874</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="L36" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M36" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="N36" s="27"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="36"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
+        <v>116</v>
+      </c>
+      <c r="N36" s="25"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="33"/>
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="33"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A37" s="14"/>
@@ -4386,47 +4333,47 @@
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I37" s="26">
-        <v>1874</v>
+        <v>119</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L37" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M37" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="N37" s="27"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="36"/>
-      <c r="AA37" s="36"/>
-      <c r="AB37" s="36"/>
+        <v>116</v>
+      </c>
+      <c r="N37" s="25"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="33"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="45" spans="1:28">
       <c r="A38" s="14"/>
@@ -4434,128 +4381,155 @@
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
       <c r="E38" s="15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G38" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I38" s="26" t="s">
-        <v>149</v>
+        <v>119</v>
+      </c>
+      <c r="I38" s="24">
+        <v>1874</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L38" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M38" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="N38" s="27"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="36"/>
-      <c r="AA38" s="36"/>
-      <c r="AB38" s="36"/>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="45" spans="1:28">
+        <v>116</v>
+      </c>
+      <c r="N38" s="25"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="33"/>
+    </row>
+    <row r="39" s="3" customFormat="1" ht="75" spans="1:57">
       <c r="A39" s="14"/>
-      <c r="B39" s="3"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G39" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I39" s="26">
-        <v>1874</v>
+        <v>119</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L39" s="15" t="s">
         <v>26</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="N39" s="27"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="36"/>
-      <c r="AA39" s="36"/>
-      <c r="AB39" s="36"/>
-    </row>
-    <row r="40" s="3" customFormat="1" ht="75" spans="1:57">
-      <c r="A40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+        <v>116</v>
+      </c>
+      <c r="N39" s="25"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="26"/>
+      <c r="AJ39" s="26"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="26"/>
+      <c r="AQ39" s="26"/>
+      <c r="AR39" s="26"/>
+      <c r="AS39" s="26"/>
+      <c r="AT39" s="26"/>
+      <c r="AU39" s="26"/>
+      <c r="AV39" s="2"/>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
+      <c r="AZ39" s="2"/>
+      <c r="BA39" s="26"/>
+      <c r="BB39" s="26"/>
+      <c r="BC39" s="26"/>
+      <c r="BD39" s="26"/>
+      <c r="BE39" s="26"/>
+    </row>
+    <row r="40" ht="39" spans="1:37">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="15" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G40" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I40" s="26" t="s">
-        <v>156</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="I40" s="24"/>
       <c r="J40" s="15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M40" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="N40" s="27"/>
+        <v>163</v>
+      </c>
+      <c r="M40" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N40" s="28"/>
       <c r="O40" s="28"/>
       <c r="P40" s="28"/>
       <c r="Q40" s="28"/>
@@ -4564,371 +4538,351 @@
       <c r="T40" s="28"/>
       <c r="U40" s="28"/>
       <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="28"/>
-      <c r="AF40" s="28"/>
-      <c r="AG40" s="28"/>
-      <c r="AH40" s="28"/>
-      <c r="AI40" s="28"/>
-      <c r="AJ40" s="28"/>
-      <c r="AK40" s="2"/>
-      <c r="AL40" s="2"/>
-      <c r="AM40" s="2"/>
-      <c r="AN40" s="2"/>
-      <c r="AO40" s="2"/>
-      <c r="AP40" s="28"/>
-      <c r="AQ40" s="28"/>
-      <c r="AR40" s="28"/>
-      <c r="AS40" s="28"/>
-      <c r="AT40" s="28"/>
-      <c r="AU40" s="28"/>
-      <c r="AV40" s="2"/>
-      <c r="AW40" s="2"/>
-      <c r="AX40" s="2"/>
-      <c r="AY40" s="2"/>
-      <c r="AZ40" s="2"/>
-      <c r="BA40" s="28"/>
-      <c r="BB40" s="28"/>
-      <c r="BC40" s="28"/>
-      <c r="BD40" s="28"/>
-      <c r="BE40" s="28"/>
-    </row>
-    <row r="41" ht="39" spans="1:37">
+      <c r="W40" s="18"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="30"/>
+      <c r="AA40" s="30"/>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="30"/>
+      <c r="AD40" s="30"/>
+      <c r="AE40" s="30"/>
+      <c r="AF40" s="30"/>
+      <c r="AG40" s="30"/>
+      <c r="AH40" s="30"/>
+      <c r="AI40" s="30"/>
+      <c r="AJ40" s="34"/>
+      <c r="AK40" s="34"/>
+    </row>
+    <row r="41" ht="54" spans="1:37">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
       <c r="D41" s="18"/>
       <c r="E41" s="15" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G41" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="I41" s="26"/>
+        <v>160</v>
+      </c>
+      <c r="I41" s="24"/>
       <c r="J41" s="15" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K41" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L41" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="L41" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M41" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="N41" s="30"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
+      <c r="M41" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
       <c r="W41" s="18"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="33"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="33"/>
-      <c r="AC41" s="33"/>
-      <c r="AD41" s="33"/>
-      <c r="AE41" s="33"/>
-      <c r="AF41" s="33"/>
-      <c r="AG41" s="33"/>
-      <c r="AH41" s="33"/>
-      <c r="AI41" s="33"/>
-      <c r="AJ41" s="37"/>
-      <c r="AK41" s="37"/>
-    </row>
-    <row r="42" ht="54" spans="1:37">
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="30"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
+      <c r="AE41" s="30"/>
+      <c r="AF41" s="30"/>
+      <c r="AG41" s="30"/>
+      <c r="AH41" s="30"/>
+      <c r="AI41" s="30"/>
+      <c r="AJ41" s="34"/>
+      <c r="AK41" s="34"/>
+    </row>
+    <row r="42" ht="69" spans="1:37">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="17"/>
       <c r="D42" s="18"/>
       <c r="E42" s="15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G42" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="I42" s="26"/>
+        <v>160</v>
+      </c>
+      <c r="I42" s="24"/>
       <c r="J42" s="15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M42" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="M42" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="28"/>
+      <c r="S42" s="28"/>
+      <c r="T42" s="28"/>
+      <c r="U42" s="28"/>
+      <c r="V42" s="28"/>
       <c r="W42" s="18"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="33"/>
-      <c r="AB42" s="33"/>
-      <c r="AC42" s="33"/>
-      <c r="AD42" s="33"/>
-      <c r="AE42" s="33"/>
-      <c r="AF42" s="33"/>
-      <c r="AG42" s="33"/>
-      <c r="AH42" s="33"/>
-      <c r="AI42" s="33"/>
-      <c r="AJ42" s="37"/>
-      <c r="AK42" s="37"/>
-    </row>
-    <row r="43" ht="69" spans="1:37">
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="30"/>
+      <c r="AD42" s="30"/>
+      <c r="AE42" s="30"/>
+      <c r="AF42" s="30"/>
+      <c r="AG42" s="30"/>
+      <c r="AH42" s="30"/>
+      <c r="AI42" s="30"/>
+      <c r="AJ42" s="34"/>
+      <c r="AK42" s="34"/>
+    </row>
+    <row r="43" ht="39" spans="1:37">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="17"/>
       <c r="D43" s="18"/>
       <c r="E43" s="15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G43" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="I43" s="26"/>
+        <v>160</v>
+      </c>
+      <c r="I43" s="24"/>
       <c r="J43" s="15" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M43" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="M43" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="28"/>
+      <c r="T43" s="28"/>
+      <c r="U43" s="28"/>
+      <c r="V43" s="28"/>
       <c r="W43" s="18"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="33"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="33"/>
-      <c r="AB43" s="33"/>
-      <c r="AC43" s="33"/>
-      <c r="AD43" s="33"/>
-      <c r="AE43" s="33"/>
-      <c r="AF43" s="33"/>
-      <c r="AG43" s="33"/>
-      <c r="AH43" s="33"/>
-      <c r="AI43" s="33"/>
-      <c r="AJ43" s="37"/>
-      <c r="AK43" s="37"/>
-    </row>
-    <row r="44" ht="39" spans="1:37">
+      <c r="X43" s="30"/>
+      <c r="Y43" s="30"/>
+      <c r="Z43" s="30"/>
+      <c r="AA43" s="30"/>
+      <c r="AB43" s="30"/>
+      <c r="AC43" s="30"/>
+      <c r="AD43" s="30"/>
+      <c r="AE43" s="30"/>
+      <c r="AF43" s="30"/>
+      <c r="AG43" s="30"/>
+      <c r="AH43" s="30"/>
+      <c r="AI43" s="30"/>
+      <c r="AJ43" s="34"/>
+      <c r="AK43" s="34"/>
+    </row>
+    <row r="44" ht="54" spans="1:37">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="17"/>
       <c r="D44" s="18"/>
       <c r="E44" s="15" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G44" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="I44" s="26"/>
+        <v>160</v>
+      </c>
+      <c r="I44" s="24"/>
       <c r="J44" s="15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M44" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="M44" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
       <c r="W44" s="18"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="33"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="33"/>
-      <c r="AC44" s="33"/>
-      <c r="AD44" s="33"/>
-      <c r="AE44" s="33"/>
-      <c r="AF44" s="33"/>
-      <c r="AG44" s="33"/>
-      <c r="AH44" s="33"/>
-      <c r="AI44" s="33"/>
-      <c r="AJ44" s="37"/>
-      <c r="AK44" s="37"/>
-    </row>
-    <row r="45" ht="54" spans="1:37">
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="30"/>
+      <c r="AD44" s="30"/>
+      <c r="AE44" s="30"/>
+      <c r="AF44" s="30"/>
+      <c r="AG44" s="30"/>
+      <c r="AH44" s="30"/>
+      <c r="AI44" s="30"/>
+      <c r="AJ44" s="34"/>
+      <c r="AK44" s="34"/>
+    </row>
+    <row r="45" ht="69" spans="1:37">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="17"/>
       <c r="D45" s="18"/>
       <c r="E45" s="15" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G45" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="I45" s="26"/>
+        <v>160</v>
+      </c>
+      <c r="I45" s="24"/>
       <c r="J45" s="15" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M45" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="M45" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
       <c r="W45" s="18"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="33"/>
-      <c r="Z45" s="33"/>
-      <c r="AA45" s="33"/>
-      <c r="AB45" s="33"/>
-      <c r="AC45" s="33"/>
-      <c r="AD45" s="33"/>
-      <c r="AE45" s="33"/>
-      <c r="AF45" s="33"/>
-      <c r="AG45" s="33"/>
-      <c r="AH45" s="33"/>
-      <c r="AI45" s="33"/>
-      <c r="AJ45" s="37"/>
-      <c r="AK45" s="37"/>
-    </row>
-    <row r="46" ht="69" spans="1:37">
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="30"/>
+      <c r="AD45" s="30"/>
+      <c r="AE45" s="30"/>
+      <c r="AF45" s="30"/>
+      <c r="AG45" s="30"/>
+      <c r="AH45" s="30"/>
+      <c r="AI45" s="30"/>
+      <c r="AJ45" s="34"/>
+      <c r="AK45" s="34"/>
+    </row>
+    <row r="46" ht="60" spans="1:37">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="17"/>
       <c r="D46" s="18"/>
       <c r="E46" s="15" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G46" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="I46" s="26"/>
+        <v>186</v>
+      </c>
+      <c r="I46" s="24"/>
       <c r="J46" s="15" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L46" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M46" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="M46" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
       <c r="W46" s="18"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="33"/>
-      <c r="AB46" s="33"/>
-      <c r="AC46" s="33"/>
-      <c r="AD46" s="33"/>
-      <c r="AE46" s="33"/>
-      <c r="AF46" s="33"/>
-      <c r="AG46" s="33"/>
-      <c r="AH46" s="33"/>
-      <c r="AI46" s="33"/>
-      <c r="AJ46" s="37"/>
-      <c r="AK46" s="37"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="30"/>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="30"/>
+      <c r="AD46" s="30"/>
+      <c r="AE46" s="30"/>
+      <c r="AF46" s="30"/>
+      <c r="AG46" s="30"/>
+      <c r="AH46" s="30"/>
+      <c r="AI46" s="30"/>
+      <c r="AJ46" s="34"/>
+      <c r="AK46" s="34"/>
     </row>
     <row r="47" ht="60" spans="1:37">
       <c r="A47" s="16"/>
@@ -4936,219 +4890,219 @@
       <c r="C47" s="17"/>
       <c r="D47" s="18"/>
       <c r="E47" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G47" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H47" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="I47" s="24"/>
+      <c r="J47" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="I47" s="26"/>
-      <c r="J47" s="15" t="s">
+      <c r="K47" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="K47" s="15" t="s">
-        <v>189</v>
-      </c>
       <c r="L47" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M47" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="M47" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="28"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="28"/>
+      <c r="V47" s="28"/>
       <c r="W47" s="18"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="33"/>
-      <c r="AA47" s="33"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="33"/>
-      <c r="AD47" s="33"/>
-      <c r="AE47" s="33"/>
-      <c r="AF47" s="33"/>
-      <c r="AG47" s="33"/>
-      <c r="AH47" s="33"/>
-      <c r="AI47" s="33"/>
-      <c r="AJ47" s="37"/>
-      <c r="AK47" s="37"/>
-    </row>
-    <row r="48" ht="60" spans="1:37">
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30"/>
+      <c r="AA47" s="30"/>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="30"/>
+      <c r="AD47" s="30"/>
+      <c r="AE47" s="30"/>
+      <c r="AF47" s="30"/>
+      <c r="AG47" s="30"/>
+      <c r="AH47" s="30"/>
+      <c r="AI47" s="30"/>
+      <c r="AJ47" s="34"/>
+      <c r="AK47" s="34"/>
+    </row>
+    <row r="48" ht="45" spans="1:37">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="17"/>
       <c r="D48" s="18"/>
       <c r="E48" s="15" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="I48" s="26"/>
+        <v>193</v>
+      </c>
+      <c r="I48" s="24"/>
       <c r="J48" s="15" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L48" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M48" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="M48" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
       <c r="W48" s="18"/>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="33"/>
-      <c r="Z48" s="33"/>
-      <c r="AA48" s="33"/>
-      <c r="AB48" s="33"/>
-      <c r="AC48" s="33"/>
-      <c r="AD48" s="33"/>
-      <c r="AE48" s="33"/>
-      <c r="AF48" s="33"/>
-      <c r="AG48" s="33"/>
-      <c r="AH48" s="33"/>
-      <c r="AI48" s="33"/>
-      <c r="AJ48" s="37"/>
-      <c r="AK48" s="37"/>
-    </row>
-    <row r="49" ht="45" spans="1:37">
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="30"/>
+      <c r="AA48" s="30"/>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="30"/>
+      <c r="AD48" s="30"/>
+      <c r="AE48" s="30"/>
+      <c r="AF48" s="30"/>
+      <c r="AG48" s="30"/>
+      <c r="AH48" s="30"/>
+      <c r="AI48" s="30"/>
+      <c r="AJ48" s="34"/>
+      <c r="AK48" s="34"/>
+    </row>
+    <row r="49" ht="81" spans="1:37">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="17"/>
       <c r="D49" s="18"/>
       <c r="E49" s="15" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="I49" s="26"/>
+        <v>198</v>
+      </c>
+      <c r="I49" s="24"/>
       <c r="J49" s="15" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M49" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="M49" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
       <c r="W49" s="18"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
-      <c r="AA49" s="33"/>
-      <c r="AB49" s="33"/>
-      <c r="AC49" s="33"/>
-      <c r="AD49" s="33"/>
-      <c r="AE49" s="33"/>
-      <c r="AF49" s="33"/>
-      <c r="AG49" s="33"/>
-      <c r="AH49" s="33"/>
-      <c r="AI49" s="33"/>
-      <c r="AJ49" s="37"/>
-      <c r="AK49" s="37"/>
-    </row>
-    <row r="50" ht="81" spans="1:37">
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30"/>
+      <c r="Z49" s="30"/>
+      <c r="AA49" s="30"/>
+      <c r="AB49" s="30"/>
+      <c r="AC49" s="30"/>
+      <c r="AD49" s="30"/>
+      <c r="AE49" s="30"/>
+      <c r="AF49" s="30"/>
+      <c r="AG49" s="30"/>
+      <c r="AH49" s="30"/>
+      <c r="AI49" s="30"/>
+      <c r="AJ49" s="34"/>
+      <c r="AK49" s="34"/>
+    </row>
+    <row r="50" ht="45" spans="1:37">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="17"/>
       <c r="D50" s="18"/>
       <c r="E50" s="15" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G50" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="I50" s="26"/>
+        <v>203</v>
+      </c>
+      <c r="I50" s="24"/>
       <c r="J50" s="15" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L50" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M50" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="M50" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
       <c r="W50" s="18"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="33"/>
-      <c r="Z50" s="33"/>
-      <c r="AA50" s="33"/>
-      <c r="AB50" s="33"/>
-      <c r="AC50" s="33"/>
-      <c r="AD50" s="33"/>
-      <c r="AE50" s="33"/>
-      <c r="AF50" s="33"/>
-      <c r="AG50" s="33"/>
-      <c r="AH50" s="33"/>
-      <c r="AI50" s="33"/>
-      <c r="AJ50" s="37"/>
-      <c r="AK50" s="37"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="30"/>
+      <c r="Z50" s="30"/>
+      <c r="AA50" s="30"/>
+      <c r="AB50" s="30"/>
+      <c r="AC50" s="30"/>
+      <c r="AD50" s="30"/>
+      <c r="AE50" s="30"/>
+      <c r="AF50" s="30"/>
+      <c r="AG50" s="30"/>
+      <c r="AH50" s="30"/>
+      <c r="AI50" s="30"/>
+      <c r="AJ50" s="34"/>
+      <c r="AK50" s="34"/>
     </row>
     <row r="51" ht="45" spans="1:37">
       <c r="A51" s="16"/>
@@ -5156,337 +5110,341 @@
       <c r="C51" s="17"/>
       <c r="D51" s="18"/>
       <c r="E51" s="15" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G51" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="I51" s="26"/>
+        <v>208</v>
+      </c>
+      <c r="I51" s="24"/>
       <c r="J51" s="15" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M51" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="M51" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="28"/>
+      <c r="S51" s="31"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
       <c r="W51" s="18"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="33"/>
-      <c r="Z51" s="33"/>
-      <c r="AA51" s="33"/>
-      <c r="AB51" s="33"/>
-      <c r="AC51" s="33"/>
-      <c r="AD51" s="33"/>
-      <c r="AE51" s="33"/>
-      <c r="AF51" s="33"/>
-      <c r="AG51" s="33"/>
-      <c r="AH51" s="33"/>
-      <c r="AI51" s="33"/>
-      <c r="AJ51" s="37"/>
-      <c r="AK51" s="37"/>
-    </row>
-    <row r="52" ht="45" spans="1:37">
+      <c r="X51" s="30"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="30"/>
+      <c r="AA51" s="30"/>
+      <c r="AB51" s="30"/>
+      <c r="AC51" s="30"/>
+      <c r="AD51" s="30"/>
+      <c r="AE51" s="30"/>
+      <c r="AF51" s="30"/>
+      <c r="AG51" s="30"/>
+      <c r="AH51" s="30"/>
+      <c r="AI51" s="30"/>
+      <c r="AJ51" s="30"/>
+      <c r="AK51" s="30"/>
+    </row>
+    <row r="52" ht="81" spans="1:37">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="17"/>
       <c r="D52" s="18"/>
       <c r="E52" s="15" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G52" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="I52" s="26"/>
+        <v>213</v>
+      </c>
+      <c r="I52" s="24"/>
       <c r="J52" s="15" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M52" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="M52" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="31"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="28"/>
       <c r="W52" s="18"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="33"/>
-      <c r="Z52" s="33"/>
-      <c r="AA52" s="33"/>
-      <c r="AB52" s="33"/>
-      <c r="AC52" s="33"/>
-      <c r="AD52" s="33"/>
-      <c r="AE52" s="33"/>
-      <c r="AF52" s="33"/>
-      <c r="AG52" s="33"/>
-      <c r="AH52" s="33"/>
-      <c r="AI52" s="33"/>
-      <c r="AJ52" s="33"/>
-      <c r="AK52" s="33"/>
-    </row>
-    <row r="53" ht="81" spans="1:37">
+      <c r="X52" s="30"/>
+      <c r="Y52" s="30"/>
+      <c r="Z52" s="30"/>
+      <c r="AA52" s="30"/>
+      <c r="AB52" s="30"/>
+      <c r="AC52" s="30"/>
+      <c r="AD52" s="30"/>
+      <c r="AE52" s="30"/>
+      <c r="AF52" s="30"/>
+      <c r="AG52" s="30"/>
+      <c r="AH52" s="30"/>
+      <c r="AI52" s="30"/>
+      <c r="AJ52" s="30"/>
+      <c r="AK52" s="30"/>
+    </row>
+    <row r="53" ht="45" spans="1:37">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="17"/>
       <c r="D53" s="18"/>
       <c r="E53" s="15" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="I53" s="26"/>
+        <v>218</v>
+      </c>
+      <c r="I53" s="24"/>
       <c r="J53" s="15" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M53" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="30"/>
-      <c r="V53" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="M53" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
       <c r="W53" s="18"/>
-      <c r="X53" s="33"/>
-      <c r="Y53" s="33"/>
-      <c r="Z53" s="33"/>
-      <c r="AA53" s="33"/>
-      <c r="AB53" s="33"/>
-      <c r="AC53" s="33"/>
-      <c r="AD53" s="33"/>
-      <c r="AE53" s="33"/>
-      <c r="AF53" s="33"/>
-      <c r="AG53" s="33"/>
-      <c r="AH53" s="33"/>
-      <c r="AI53" s="33"/>
-      <c r="AJ53" s="33"/>
-      <c r="AK53" s="33"/>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="30"/>
+      <c r="Z53" s="30"/>
+      <c r="AA53" s="30"/>
+      <c r="AB53" s="30"/>
+      <c r="AC53" s="30"/>
+      <c r="AD53" s="30"/>
+      <c r="AE53" s="30"/>
+      <c r="AF53" s="30"/>
+      <c r="AG53" s="30"/>
+      <c r="AH53" s="30"/>
+      <c r="AI53" s="30"/>
+      <c r="AJ53" s="30"/>
+      <c r="AK53" s="30"/>
     </row>
     <row r="54" ht="45" spans="1:37">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="17"/>
-      <c r="D54" s="18"/>
+      <c r="D54" s="15" t="s">
+        <v>221</v>
+      </c>
       <c r="E54" s="15" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G54" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="I54" s="26"/>
+        <v>160</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>224</v>
+      </c>
       <c r="J54" s="15" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M54" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="30"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="30"/>
-      <c r="V54" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="M54" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
       <c r="W54" s="18"/>
-      <c r="X54" s="33"/>
-      <c r="Y54" s="33"/>
-      <c r="Z54" s="33"/>
-      <c r="AA54" s="33"/>
-      <c r="AB54" s="33"/>
-      <c r="AC54" s="33"/>
-      <c r="AD54" s="33"/>
-      <c r="AE54" s="33"/>
-      <c r="AF54" s="33"/>
-      <c r="AG54" s="33"/>
-      <c r="AH54" s="33"/>
-      <c r="AI54" s="33"/>
-      <c r="AJ54" s="33"/>
-      <c r="AK54" s="33"/>
-    </row>
-    <row r="55" ht="45" spans="1:37">
+      <c r="X54" s="30"/>
+      <c r="Y54" s="30"/>
+      <c r="Z54" s="30"/>
+      <c r="AA54" s="30"/>
+      <c r="AB54" s="30"/>
+      <c r="AC54" s="30"/>
+      <c r="AD54" s="30"/>
+      <c r="AE54" s="30"/>
+      <c r="AF54" s="30"/>
+      <c r="AG54" s="30"/>
+      <c r="AH54" s="30"/>
+      <c r="AI54" s="30"/>
+      <c r="AJ54" s="30"/>
+      <c r="AK54" s="30"/>
+    </row>
+    <row r="55" ht="42" spans="1:37">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="17"/>
       <c r="D55" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="E55" s="15" t="s">
-        <v>223</v>
-      </c>
       <c r="F55" s="15" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G55" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="I55" s="26" t="s">
-        <v>225</v>
+        <v>160</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>229</v>
       </c>
       <c r="J55" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="K55" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="K55" s="15" t="s">
-        <v>227</v>
-      </c>
       <c r="L55" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M55" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="30"/>
-      <c r="V55" s="30"/>
+        <v>116</v>
+      </c>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
       <c r="W55" s="18"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33"/>
-      <c r="AA55" s="33"/>
-      <c r="AB55" s="33"/>
-      <c r="AC55" s="33"/>
-      <c r="AD55" s="33"/>
-      <c r="AE55" s="33"/>
-      <c r="AF55" s="33"/>
-      <c r="AG55" s="33"/>
-      <c r="AH55" s="33"/>
-      <c r="AI55" s="33"/>
-      <c r="AJ55" s="33"/>
-      <c r="AK55" s="33"/>
-    </row>
-    <row r="56" ht="42" spans="1:37">
+      <c r="X55" s="30"/>
+      <c r="Y55" s="30"/>
+      <c r="Z55" s="30"/>
+      <c r="AA55" s="30"/>
+      <c r="AB55" s="30"/>
+      <c r="AC55" s="30"/>
+      <c r="AD55" s="30"/>
+      <c r="AE55" s="30"/>
+      <c r="AF55" s="30"/>
+      <c r="AG55" s="30"/>
+      <c r="AH55" s="30"/>
+      <c r="AI55" s="30"/>
+      <c r="AJ55" s="30"/>
+      <c r="AK55" s="30"/>
+    </row>
+    <row r="56" ht="25.8" spans="1:37">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="15" t="s">
-        <v>228</v>
-      </c>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
       <c r="E56" s="15" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="I56" s="26" t="s">
-        <v>230</v>
+        <v>234</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M56" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="30"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="30"/>
-      <c r="V56" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="M56" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="N56" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
       <c r="W56" s="18"/>
-      <c r="X56" s="33"/>
-      <c r="Y56" s="33"/>
-      <c r="Z56" s="33"/>
-      <c r="AA56" s="33"/>
-      <c r="AB56" s="33"/>
-      <c r="AC56" s="33"/>
-      <c r="AD56" s="33"/>
-      <c r="AE56" s="33"/>
-      <c r="AF56" s="33"/>
-      <c r="AG56" s="33"/>
-      <c r="AH56" s="33"/>
-      <c r="AI56" s="33"/>
-      <c r="AJ56" s="33"/>
-      <c r="AK56" s="33"/>
+      <c r="X56" s="30"/>
+      <c r="Y56" s="30"/>
+      <c r="Z56" s="30"/>
+      <c r="AA56" s="30"/>
+      <c r="AB56" s="30"/>
+      <c r="AC56" s="30"/>
+      <c r="AD56" s="30"/>
+      <c r="AE56" s="30"/>
+      <c r="AF56" s="30"/>
+      <c r="AG56" s="30"/>
+      <c r="AH56" s="30"/>
+      <c r="AI56" s="30"/>
+      <c r="AJ56" s="30"/>
+      <c r="AK56" s="30"/>
     </row>
     <row r="57" ht="25.8" spans="1:37">
       <c r="A57" s="16"/>
@@ -5494,58 +5452,58 @@
       <c r="C57" s="19"/>
       <c r="D57" s="20"/>
       <c r="E57" s="15" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F57" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G57" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="G57" s="15" t="s">
-        <v>234</v>
-      </c>
       <c r="H57" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="I57" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="I57" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="J57" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="J57" s="15" t="s">
-        <v>237</v>
-      </c>
       <c r="K57" s="15" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M57" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="N57" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="30"/>
+        <v>116</v>
+      </c>
+      <c r="N57" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
       <c r="W57" s="18"/>
-      <c r="X57" s="33"/>
-      <c r="Y57" s="33"/>
-      <c r="Z57" s="33"/>
-      <c r="AA57" s="33"/>
-      <c r="AB57" s="33"/>
-      <c r="AC57" s="33"/>
-      <c r="AD57" s="33"/>
-      <c r="AE57" s="33"/>
-      <c r="AF57" s="33"/>
-      <c r="AG57" s="33"/>
-      <c r="AH57" s="33"/>
-      <c r="AI57" s="33"/>
-      <c r="AJ57" s="33"/>
-      <c r="AK57" s="33"/>
+      <c r="X57" s="30"/>
+      <c r="Y57" s="30"/>
+      <c r="Z57" s="30"/>
+      <c r="AA57" s="30"/>
+      <c r="AB57" s="30"/>
+      <c r="AC57" s="30"/>
+      <c r="AD57" s="30"/>
+      <c r="AE57" s="30"/>
+      <c r="AF57" s="30"/>
+      <c r="AG57" s="30"/>
+      <c r="AH57" s="30"/>
+      <c r="AI57" s="30"/>
+      <c r="AJ57" s="30"/>
+      <c r="AK57" s="30"/>
     </row>
     <row r="58" ht="25.8" spans="1:37">
       <c r="A58" s="16"/>
@@ -5553,58 +5511,58 @@
       <c r="C58" s="19"/>
       <c r="D58" s="20"/>
       <c r="E58" s="15" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="I58" s="26" t="s">
-        <v>243</v>
+        <v>247</v>
+      </c>
+      <c r="I58" s="24" t="s">
+        <v>248</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L58" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M58" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="N58" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="31"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="30"/>
-      <c r="U58" s="30"/>
-      <c r="V58" s="30"/>
+        <v>116</v>
+      </c>
+      <c r="N58" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="28"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="28"/>
+      <c r="V58" s="28"/>
       <c r="W58" s="18"/>
-      <c r="X58" s="33"/>
-      <c r="Y58" s="33"/>
-      <c r="Z58" s="33"/>
-      <c r="AA58" s="33"/>
-      <c r="AB58" s="33"/>
-      <c r="AC58" s="33"/>
-      <c r="AD58" s="33"/>
-      <c r="AE58" s="33"/>
-      <c r="AF58" s="33"/>
-      <c r="AG58" s="33"/>
-      <c r="AH58" s="33"/>
-      <c r="AI58" s="33"/>
-      <c r="AJ58" s="33"/>
-      <c r="AK58" s="33"/>
+      <c r="X58" s="30"/>
+      <c r="Y58" s="30"/>
+      <c r="Z58" s="30"/>
+      <c r="AA58" s="30"/>
+      <c r="AB58" s="30"/>
+      <c r="AC58" s="30"/>
+      <c r="AD58" s="30"/>
+      <c r="AE58" s="30"/>
+      <c r="AF58" s="30"/>
+      <c r="AG58" s="30"/>
+      <c r="AH58" s="30"/>
+      <c r="AI58" s="30"/>
+      <c r="AJ58" s="30"/>
+      <c r="AK58" s="30"/>
     </row>
     <row r="59" ht="25.8" spans="1:37">
       <c r="A59" s="16"/>
@@ -5612,58 +5570,58 @@
       <c r="C59" s="19"/>
       <c r="D59" s="20"/>
       <c r="E59" s="15" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F59" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H59" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="G59" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="I59" s="26" t="s">
-        <v>249</v>
+      <c r="I59" s="24" t="s">
+        <v>242</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K59" s="15" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M59" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="N59" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="30"/>
-      <c r="U59" s="30"/>
-      <c r="V59" s="30"/>
+        <v>116</v>
+      </c>
+      <c r="N59" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="28"/>
       <c r="W59" s="18"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="33"/>
-      <c r="Z59" s="33"/>
-      <c r="AA59" s="33"/>
-      <c r="AB59" s="33"/>
-      <c r="AC59" s="33"/>
-      <c r="AD59" s="33"/>
-      <c r="AE59" s="33"/>
-      <c r="AF59" s="33"/>
-      <c r="AG59" s="33"/>
-      <c r="AH59" s="33"/>
-      <c r="AI59" s="33"/>
-      <c r="AJ59" s="33"/>
-      <c r="AK59" s="33"/>
+      <c r="X59" s="30"/>
+      <c r="Y59" s="30"/>
+      <c r="Z59" s="30"/>
+      <c r="AA59" s="30"/>
+      <c r="AB59" s="30"/>
+      <c r="AC59" s="30"/>
+      <c r="AD59" s="30"/>
+      <c r="AE59" s="30"/>
+      <c r="AF59" s="30"/>
+      <c r="AG59" s="30"/>
+      <c r="AH59" s="30"/>
+      <c r="AI59" s="30"/>
+      <c r="AJ59" s="30"/>
+      <c r="AK59" s="30"/>
     </row>
     <row r="60" ht="25.8" spans="1:37">
       <c r="A60" s="16"/>
@@ -5671,172 +5629,56 @@
       <c r="C60" s="19"/>
       <c r="D60" s="20"/>
       <c r="E60" s="15" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="I60" s="26" t="s">
-        <v>243</v>
+        <v>247</v>
+      </c>
+      <c r="I60" s="24" t="s">
+        <v>242</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L60" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M60" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="N60" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="30"/>
-      <c r="U60" s="30"/>
-      <c r="V60" s="30"/>
+        <v>116</v>
+      </c>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
       <c r="W60" s="18"/>
-      <c r="X60" s="33"/>
-      <c r="Y60" s="33"/>
-      <c r="Z60" s="33"/>
-      <c r="AA60" s="33"/>
-      <c r="AB60" s="33"/>
-      <c r="AC60" s="33"/>
-      <c r="AD60" s="33"/>
-      <c r="AE60" s="33"/>
-      <c r="AF60" s="33"/>
-      <c r="AG60" s="33"/>
-      <c r="AH60" s="33"/>
-      <c r="AI60" s="33"/>
-      <c r="AJ60" s="33"/>
-      <c r="AK60" s="33"/>
-    </row>
-    <row r="61" ht="25.8" spans="1:37">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="I61" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="J61" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="K61" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="L61" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M61" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="30"/>
-      <c r="U61" s="30"/>
-      <c r="V61" s="30"/>
-      <c r="W61" s="18"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="33"/>
-      <c r="Z61" s="33"/>
-      <c r="AA61" s="33"/>
-      <c r="AB61" s="33"/>
-      <c r="AC61" s="33"/>
-      <c r="AD61" s="33"/>
-      <c r="AE61" s="33"/>
-      <c r="AF61" s="33"/>
-      <c r="AG61" s="33"/>
-      <c r="AH61" s="33"/>
-      <c r="AI61" s="33"/>
-      <c r="AJ61" s="33"/>
-      <c r="AK61" s="33"/>
-    </row>
-    <row r="62" ht="105" spans="1:37">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="I62" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="J62" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="K62" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="L62" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M62" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="N62" s="32"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="30"/>
-      <c r="U62" s="30"/>
-      <c r="V62" s="30"/>
-      <c r="W62" s="18"/>
-      <c r="X62" s="33"/>
-      <c r="Y62" s="33"/>
-      <c r="Z62" s="33"/>
-      <c r="AA62" s="33"/>
-      <c r="AB62" s="33"/>
-      <c r="AC62" s="33"/>
-      <c r="AD62" s="33"/>
-      <c r="AE62" s="33"/>
-      <c r="AF62" s="33"/>
-      <c r="AG62" s="33"/>
-      <c r="AH62" s="33"/>
-      <c r="AI62" s="33"/>
-      <c r="AJ62" s="33"/>
-      <c r="AK62" s="33"/>
+      <c r="X60" s="30"/>
+      <c r="Y60" s="30"/>
+      <c r="Z60" s="30"/>
+      <c r="AA60" s="30"/>
+      <c r="AB60" s="30"/>
+      <c r="AC60" s="30"/>
+      <c r="AD60" s="30"/>
+      <c r="AE60" s="30"/>
+      <c r="AF60" s="30"/>
+      <c r="AG60" s="30"/>
+      <c r="AH60" s="30"/>
+      <c r="AI60" s="30"/>
+      <c r="AJ60" s="30"/>
+      <c r="AK60" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
